--- a/result/real-recall.xlsx
+++ b/result/real-recall.xlsx
@@ -48,19 +48,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nfcount:96.5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nfcount:96.2%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nfcount:95.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nfcount:95.8%</t>
+    <t>rcount:96.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcount:96.2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcount:95.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcount:95.8%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/result/real-recall.xlsx
+++ b/result/real-recall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
   <si>
     <t>1000W</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,19 +48,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rcount:96.5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcount:96.2%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcount:95.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcount:95.8%</t>
+    <t>rcount:100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcount:100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcount:99.8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcount:99.9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcount:99.9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcount:100%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,8 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -410,15 +420,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -451,13 +462,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -474,6 +485,128 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
         <v>7</v>
       </c>
     </row>
